--- a/init-data/hzero-message/hzero_message/hzero-message.xlsx
+++ b/init-data/hzero-message/hzero_message/hzero-message.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="278">
   <si>
     <r>
       <rPr>
@@ -2002,7 +2002,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2020,7 +2020,10 @@
     <t>#server_code</t>
   </si>
   <si>
-    <t>server_name</t>
+    <t>server_name:zh_CN</t>
+  </si>
+  <si>
+    <t>server_name:en_US</t>
   </si>
   <si>
     <t>host</t>
@@ -2050,60 +2053,66 @@
     <t>filter_strategy</t>
   </si>
   <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-8</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>平台默认发送配置</t>
+  </si>
+  <si>
+    <t>smtp.163.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>hmsg_email_server-8</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>平台默认发送配置</t>
-  </si>
-  <si>
-    <t>smtp.163.com</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
-  </si>
-  <si>
     <t>短信服务配置</t>
   </si>
   <si>
@@ -2173,6 +2182,9 @@
     <t>#lang</t>
   </si>
   <si>
+    <t>editor_type</t>
+  </si>
+  <si>
     <t>hmsg_message_template-8</t>
   </si>
   <si>
@@ -2191,6 +2203,9 @@
     <t>zh_CN</t>
   </si>
   <si>
+    <t>RT</t>
+  </si>
+  <si>
     <t>hmsg_message_template-9</t>
   </si>
   <si>
@@ -2290,6 +2305,18 @@
     <t>hmsg_message_template-15</t>
   </si>
   <si>
+    <t>HIAM.MOD_PWD_SUCC_WITH_PWD</t>
+  </si>
+  <si>
+    <t>登录密码修改成功(带密码)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;用户&lt;strong&gt;${loginName}&lt;/strong&gt;密码修改成功，新密码为&lt;span class="marker"&gt;${{password}}&lt;/span&gt;，请谨慎保管！&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-16</t>
+  </si>
+  <si>
     <t>HIAM.REGISTER_USER</t>
   </si>
   <si>
@@ -2308,7 +2335,7 @@
     <t>smsTpl:6f2ec043-687b-43dc-a231-53487467fe76</t>
   </si>
   <si>
-    <t>hmsg_message_template-16</t>
+    <t>hmsg_message_template-17</t>
   </si>
   <si>
     <t>HIAM.VALIDATE_EMAIL</t>
@@ -2320,7 +2347,7 @@
     <t>&lt;p&gt;【HZERO】您正在验证邮箱，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
-    <t>hmsg_message_template-17</t>
+    <t>hmsg_message_template-18</t>
   </si>
   <si>
     <t>HIAM.VALIDATE_PHONE</t>
@@ -2332,7 +2359,7 @@
     <t>&lt;p&gt;【HZERO】您正在验证手机号，验证码[${captcha}]，请在5分钟内完成校验！&lt;/p&gt;</t>
   </si>
   <si>
-    <t>hmsg_message_template-18</t>
+    <t>hmsg_message_template-19</t>
   </si>
   <si>
     <t>HOTH.MOBILE_LOGIN</t>
@@ -2350,7 +2377,7 @@
     <t>smsTpl:1964a961-d23c-4c84-a9e2-1f984f416901</t>
   </si>
   <si>
-    <t>hmsg_message_template-19</t>
+    <t>hmsg_message_template-20</t>
   </si>
   <si>
     <t>HOTH.MODIFY_PASSWORD</t>
@@ -2476,7 +2503,10 @@
     <t>#message_code</t>
   </si>
   <si>
-    <t>message_name</t>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
   </si>
   <si>
     <t>hmsg_template_server-8</t>
@@ -2524,6 +2554,9 @@
     <t>hmsg_template_server-18</t>
   </si>
   <si>
+    <t>hmsg_template_server-19</t>
+  </si>
+  <si>
     <t>发送配置(邮箱)</t>
   </si>
   <si>
@@ -2548,15 +2581,15 @@
     <t>server_code</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-21</t>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-22</t>
   </si>
   <si>
     <t>EMAIL</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-22</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-23</t>
   </si>
   <si>
@@ -2569,21 +2602,21 @@
     <t>hmsg_template_server_line-26</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-27</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-28</t>
+  </si>
+  <si>
     <t>发送配置(短信)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-29</t>
+    <t>hmsg_template_server_line-31</t>
   </si>
   <si>
     <t>SMS</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-30</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line-31</t>
-  </si>
-  <si>
     <t>hmsg_template_server_line-32</t>
   </si>
   <si>
@@ -2599,10 +2632,19 @@
     <t>hmsg_template_server_line-36</t>
   </si>
   <si>
+    <t>hmsg_template_server_line-37</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-38</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-39</t>
+  </si>
+  <si>
     <t>发送配置(其它)</t>
   </si>
   <si>
-    <t>hmsg_template_server_line-39</t>
+    <t>hmsg_template_server_line-42</t>
   </si>
   <si>
     <t>WEB</t>
@@ -2649,7 +2691,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="131">
+  <fonts count="137">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3070,6 +3112,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -3115,6 +3162,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -3185,6 +3237,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -3225,6 +3282,11 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
@@ -3315,12 +3377,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3471,7 +3543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3651,6 +3723,12 @@
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4236,7 +4314,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4316,46 +4394,58 @@
       <c r="P7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" t="s" s="91">
+      <c r="Q7" t="s">
         <v>66</v>
+      </c>
+      <c r="R7" t="s" s="91">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s" s="92">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
         <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -4366,25 +4456,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s" s="92">
-        <v>79</v>
-      </c>
-      <c r="E10" t="s" s="93">
         <v>80</v>
       </c>
-      <c r="F10" t="s" s="94">
+      <c r="D10" t="s" s="93">
         <v>81</v>
       </c>
-      <c r="G10" t="s" s="95">
+      <c r="E10" t="s" s="94">
         <v>82</v>
       </c>
+      <c r="F10" t="s" s="95">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s" s="96">
+        <v>84</v>
+      </c>
       <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s" s="96">
-        <v>66</v>
+        <v>85</v>
+      </c>
+      <c r="I10" t="s" s="97">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4393,6 +4483,794 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="39">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="40">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="41">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="43">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="44">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s" s="98">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s" s="99">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="100">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s" s="101">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s" s="102">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="46">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="47">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="48">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="49">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="50">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="51">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="52">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s" s="103">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s" s="104">
+        <v>100</v>
+      </c>
+      <c r="F7" t="s" s="105">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7" t="s" s="106">
+        <v>109</v>
+      </c>
+      <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" t="s" s="107">
+        <v>86</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="E10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" t="s" s="108">
+        <v>181</v>
+      </c>
+      <c r="E22" t="s" s="109">
+        <v>182</v>
+      </c>
+      <c r="F22" t="s" s="110">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s" s="111">
+        <v>184</v>
+      </c>
+      <c r="H22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23">
+        <f>消息模板!$E$8</f>
+      </c>
+      <c r="G23" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F24">
+        <f>消息模板!$E$10</f>
+      </c>
+      <c r="G24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25">
+        <f>消息模板!$E$11</f>
+      </c>
+      <c r="G25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26">
+        <f>消息模板!$E$12</f>
+      </c>
+      <c r="G26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27">
+        <f>消息模板!$E$14</f>
+      </c>
+      <c r="G27" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="E28" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28">
+        <f>消息模板!$E$19</f>
+      </c>
+      <c r="G28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N8"/>
   <sheetViews>
@@ -4401,27 +5279,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="39">
+      <c r="A1" t="s" s="53">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" t="s" s="54">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" t="s" s="55">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" t="s" s="56">
         <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="s" s="43">
+      <c r="E4" t="s" s="57">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" t="s" s="58">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" t="s" s="59">
         <v>49</v>
       </c>
     </row>
@@ -4433,732 +5311,72 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" t="s" s="97">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s" s="98">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s" s="99">
-        <v>55</v>
+        <v>190</v>
+      </c>
+      <c r="D7" t="s" s="112">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s" s="113">
+        <v>192</v>
+      </c>
+      <c r="F7" t="s" s="114">
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
+        <v>196</v>
+      </c>
+      <c r="J7" t="s" s="115">
+        <v>197</v>
+      </c>
+      <c r="K7" t="s" s="116">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s" s="117">
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s" s="100">
-        <v>66</v>
+        <v>198</v>
+      </c>
+      <c r="N7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="H8" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="46">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="47">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="48">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="49">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="s" s="50">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="51">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s" s="52">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s" s="101">
-        <v>96</v>
-      </c>
-      <c r="E7" t="s" s="102">
-        <v>97</v>
-      </c>
-      <c r="F7" t="s" s="103">
-        <v>98</v>
-      </c>
-      <c r="G7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" t="s" s="104">
-        <v>106</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s" s="105">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s">
-        <v>112</v>
-      </c>
-      <c r="O8" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
-      <c r="O9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="E10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" t="s">
-        <v>129</v>
-      </c>
-      <c r="J11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G12" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
-      <c r="N12" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" t="s">
-        <v>76</v>
-      </c>
-      <c r="P13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>124</v>
-      </c>
-      <c r="L14" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>148</v>
-      </c>
-      <c r="I15" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" t="s">
-        <v>151</v>
-      </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>154</v>
-      </c>
-      <c r="I16" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" t="s">
-        <v>112</v>
-      </c>
-      <c r="O17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" t="s">
-        <v>163</v>
-      </c>
-      <c r="I18" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" t="s">
-        <v>165</v>
-      </c>
-      <c r="N18" t="s">
-        <v>112</v>
-      </c>
-      <c r="O18" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G19" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" t="s">
-        <v>170</v>
-      </c>
-      <c r="N19" t="s">
-        <v>112</v>
-      </c>
-      <c r="O19" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s" s="106">
-        <v>172</v>
-      </c>
-      <c r="E21" t="s" s="107">
-        <v>173</v>
-      </c>
-      <c r="F21" t="s" s="108">
-        <v>174</v>
-      </c>
-      <c r="G21" t="s" s="109">
-        <v>175</v>
-      </c>
-      <c r="H21" t="s">
-        <v>176</v>
-      </c>
-      <c r="I21" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22">
-        <f>消息模板!$E$8</f>
-      </c>
-      <c r="G22" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23">
-        <f>消息模板!$E$10</f>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24">
-        <f>消息模板!$E$11</f>
-      </c>
-      <c r="G24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25">
-        <f>消息模板!$E$12</f>
-      </c>
-      <c r="G25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26">
-        <f>消息模板!$E$14</f>
-      </c>
-      <c r="G26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27">
-        <f>消息模板!$E$18</f>
-      </c>
-      <c r="G27" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="53">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="54">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="55">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="56">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="s" s="57">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="58">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s" s="59">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" t="s" s="110">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s" s="111">
-        <v>183</v>
-      </c>
-      <c r="F7" t="s" s="112">
-        <v>184</v>
-      </c>
-      <c r="G7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" t="s" s="113">
-        <v>188</v>
-      </c>
-      <c r="K7" t="s" s="114">
-        <v>66</v>
-      </c>
-      <c r="L7" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5207,34 +5425,34 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s" s="115">
-        <v>197</v>
-      </c>
-      <c r="E7" t="s" s="116">
-        <v>198</v>
-      </c>
-      <c r="F7" t="s" s="117">
-        <v>199</v>
+        <v>205</v>
+      </c>
+      <c r="D7" t="s" s="118">
+        <v>206</v>
+      </c>
+      <c r="E7" t="s" s="119">
+        <v>207</v>
+      </c>
+      <c r="F7" t="s" s="120">
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" t="s" s="118">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="L7" t="s" s="121">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -5244,7 +5462,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5283,608 +5501,797 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" t="s" s="119">
-        <v>205</v>
-      </c>
-      <c r="E7" t="s" s="120">
-        <v>206</v>
-      </c>
-      <c r="F7" t="s" s="121">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s" s="122">
-        <v>207</v>
-      </c>
-      <c r="H7" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="D7" t="s" s="122">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s" s="123">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s" s="124">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s" s="125">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s" s="126">
+        <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>217</v>
+      </c>
+      <c r="J7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>113</v>
+      </c>
+      <c r="J8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>225</v>
+      </c>
+      <c r="J12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>228</v>
+      </c>
+      <c r="J14" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="E15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="E16" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>231</v>
+      </c>
+      <c r="J16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="E17" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="E18" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" t="s" s="123">
-        <v>225</v>
-      </c>
-      <c r="E20" t="s" s="124">
-        <v>226</v>
-      </c>
-      <c r="F20" t="s" s="125">
-        <v>227</v>
-      </c>
-      <c r="G20" t="s" s="126">
-        <v>199</v>
-      </c>
-      <c r="H20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I20" t="s" s="127">
-        <v>229</v>
-      </c>
-      <c r="J20" t="s">
-        <v>230</v>
-      </c>
-      <c r="K20" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21">
-        <f>发送配置!$E$18</f>
-      </c>
-      <c r="G21" t="s">
-        <v>233</v>
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" t="s" s="127">
+        <v>236</v>
+      </c>
+      <c r="E21" t="s" s="128">
+        <v>237</v>
+      </c>
+      <c r="F21" t="s" s="129">
+        <v>238</v>
+      </c>
+      <c r="G21" t="s" s="130">
+        <v>208</v>
       </c>
       <c r="H21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21">
-        <f>邮箱服务配置!$E$8</f>
+        <v>239</v>
+      </c>
+      <c r="I21" t="s" s="131">
+        <v>240</v>
+      </c>
+      <c r="J21" t="s">
+        <v>241</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>242</v>
+      </c>
+      <c r="L21" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="E22" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F22">
-        <f>发送配置!$E$14</f>
+        <f>发送配置!$E$18</f>
       </c>
       <c r="G22" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="I22">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="E23" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F23">
-        <f>发送配置!$E$11</f>
+        <f>发送配置!$E$14</f>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="I23">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="E24" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F24">
-        <f>发送配置!$E$15</f>
+        <f>发送配置!$E$11</f>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="I24">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="E25" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F25">
-        <f>发送配置!$E$10</f>
+        <f>发送配置!$E$15</f>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H25" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="I25">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L25" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="E26" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F26">
-        <f>发送配置!$E$9</f>
+        <f>发送配置!$E$10</f>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I26">
         <f>邮箱服务配置!$E$8</f>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27">
+        <f>发送配置!$E$9</f>
+      </c>
+      <c r="G27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27">
+        <f>邮箱服务配置!$E$8</f>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28">
+        <f>发送配置!$E$19</f>
+      </c>
+      <c r="G28" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" t="s" s="132">
+        <v>236</v>
+      </c>
+      <c r="E30" t="s" s="133">
+        <v>237</v>
+      </c>
+      <c r="F30" t="s" s="134">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s" s="135">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
         <v>239</v>
       </c>
-      <c r="D28" t="s" s="128">
-        <v>225</v>
-      </c>
-      <c r="E28" t="s" s="129">
-        <v>226</v>
-      </c>
-      <c r="F28" t="s" s="130">
-        <v>227</v>
-      </c>
-      <c r="G28" t="s" s="131">
-        <v>199</v>
-      </c>
-      <c r="H28" t="s">
-        <v>228</v>
-      </c>
-      <c r="I28" t="s" s="132">
-        <v>229</v>
-      </c>
-      <c r="J28" t="s">
-        <v>230</v>
-      </c>
-      <c r="K28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="s">
+      <c r="I30" t="s" s="136">
         <v>240</v>
       </c>
-      <c r="F29">
-        <f>发送配置!$E$8</f>
-      </c>
-      <c r="G29" t="s">
+      <c r="J30" t="s">
         <v>241</v>
       </c>
-      <c r="H29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="s">
+      <c r="K30" t="s">
         <v>242</v>
       </c>
-      <c r="F30">
-        <f>发送配置!$E$18</f>
-      </c>
-      <c r="G30" t="s">
-        <v>241</v>
-      </c>
-      <c r="H30" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30">
-        <f>短信服务配置!$E$8</f>
-      </c>
-      <c r="K30" t="s">
-        <v>68</v>
+      <c r="L30" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F31">
-        <f>发送配置!$E$14</f>
+        <f>发送配置!$E$8</f>
       </c>
       <c r="G31" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="I31">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L31" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F32">
-        <f>发送配置!$E$13</f>
+        <f>发送配置!$E$18</f>
       </c>
       <c r="G32" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="I32">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F33">
-        <f>发送配置!$E$16</f>
+        <f>发送配置!$E$14</f>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I33">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L33" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F34">
-        <f>发送配置!$E$10</f>
+        <f>发送配置!$E$13</f>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H34" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="I34">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F35">
-        <f>发送配置!$E$9</f>
+        <f>发送配置!$E$16</f>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="I35">
         <f>短信服务配置!$E$8</f>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="L35" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F36">
+        <f>发送配置!$E$10</f>
+      </c>
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36">
+        <f>短信服务配置!$E$8</f>
+      </c>
+      <c r="K36" t="s">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37">
+        <f>发送配置!$E$9</f>
+      </c>
+      <c r="G37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37">
+        <f>短信服务配置!$E$8</f>
+      </c>
+      <c r="K37" t="s">
+        <v>70</v>
+      </c>
+      <c r="L37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38">
         <f>发送配置!$E$17</f>
       </c>
-      <c r="G36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" t="s">
-        <v>161</v>
-      </c>
-      <c r="K36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D38" t="s" s="133">
-        <v>225</v>
-      </c>
-      <c r="E38" t="s" s="134">
-        <v>226</v>
-      </c>
-      <c r="F38" t="s" s="135">
-        <v>227</v>
-      </c>
-      <c r="G38" t="s" s="136">
-        <v>199</v>
+      <c r="G38" t="s">
+        <v>254</v>
       </c>
       <c r="H38" t="s">
-        <v>228</v>
-      </c>
-      <c r="I38" t="s">
-        <v>229</v>
-      </c>
-      <c r="J38" t="s">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>70</v>
+      </c>
+      <c r="L38" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="E39" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="F39">
+        <f>发送配置!$E$19</f>
+      </c>
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>151</v>
+      </c>
+      <c r="K39" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" t="s" s="137">
+        <v>236</v>
+      </c>
+      <c r="E41" t="s" s="138">
+        <v>237</v>
+      </c>
+      <c r="F41" t="s" s="139">
+        <v>238</v>
+      </c>
+      <c r="G41" t="s" s="140">
+        <v>208</v>
+      </c>
+      <c r="H41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I41" t="s">
+        <v>240</v>
+      </c>
+      <c r="J41" t="s">
+        <v>241</v>
+      </c>
+      <c r="K41" t="s">
+        <v>242</v>
+      </c>
+      <c r="L41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42">
         <f>发送配置!$E$12</f>
       </c>
-      <c r="G39" t="s">
-        <v>251</v>
-      </c>
-      <c r="H39" t="s">
-        <v>137</v>
+      <c r="G42" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5893,6 +6300,97 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="74">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s" s="75">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s" s="76">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s" s="77">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="s" s="78">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s" s="79">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s" s="80">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" t="s" s="141">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s" s="142">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="143">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M7" t="s">
+        <v>272</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s" s="144">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s" s="145">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -5901,27 +6399,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="74">
+      <c r="A1" t="s" s="81">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="75">
+      <c r="B1" t="s" s="82">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="76">
+      <c r="C1" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="77">
+      <c r="D1" t="s" s="84">
         <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="s" s="78">
+      <c r="E4" t="s" s="85">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="79">
+      <c r="F4" t="s" s="86">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="80">
+      <c r="G4" t="s" s="87">
         <v>49</v>
       </c>
     </row>
@@ -5933,122 +6431,43 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" t="s" s="137">
-        <v>253</v>
-      </c>
-      <c r="E7" t="s" s="138">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s" s="146">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s" s="147">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="139">
+      <c r="F7" t="s" s="148">
         <v>55</v>
       </c>
       <c r="G7" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>254</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="L7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" t="s" s="140">
-        <v>66</v>
-      </c>
-      <c r="O7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="81">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s" s="82">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="84">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="E4" t="s" s="85">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="86">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s" s="87">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>260</v>
-      </c>
-      <c r="D7" t="s" s="141">
-        <v>261</v>
-      </c>
-      <c r="E7" t="s" s="142">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s" s="143">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>254</v>
-      </c>
-      <c r="I7" t="s">
-        <v>262</v>
-      </c>
-      <c r="J7" t="s">
-        <v>263</v>
-      </c>
-      <c r="K7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" t="s" s="144">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="N7" t="s" s="149">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s" s="150">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
